--- a/data/trans_orig/P6708-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>19112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11049</v>
+        <v>11318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30503</v>
+        <v>29205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07131126188925392</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0412263932462706</v>
+        <v>0.04223211754891384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1138153618932377</v>
+        <v>0.1089740365791099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>12699</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6721</v>
+        <v>6796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21950</v>
+        <v>21414</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07873985176749354</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04167175283162506</v>
+        <v>0.04214073891431847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1360999701814525</v>
+        <v>0.1327793534394523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -785,19 +785,19 @@
         <v>31810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21422</v>
+        <v>21995</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44404</v>
+        <v>44803</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07410210048841337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04990155635429781</v>
+        <v>0.05123775396316962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1034381297206462</v>
+        <v>0.1043670046159824</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>15574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8698</v>
+        <v>8619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25848</v>
+        <v>25476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05811289846407571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03245358720607018</v>
+        <v>0.03215993653563377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09644854660086344</v>
+        <v>0.09505986737285844</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -835,19 +835,19 @@
         <v>10806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5024</v>
+        <v>5621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18952</v>
+        <v>19171</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06700451433640695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03114992032232497</v>
+        <v>0.03485086149265184</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1175124087474344</v>
+        <v>0.1188691790174806</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -856,19 +856,19 @@
         <v>26381</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18075</v>
+        <v>17160</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39205</v>
+        <v>38526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06145337965796837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04210441122889944</v>
+        <v>0.03997355998224612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09132688045121805</v>
+        <v>0.08974557951605541</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>52649</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40154</v>
+        <v>40724</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65719</v>
+        <v>67169</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1964482753196861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1498262547653553</v>
+        <v>0.1519517620902035</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2452164310906328</v>
+        <v>0.2506266956385208</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -906,19 +906,19 @@
         <v>32078</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22932</v>
+        <v>21817</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44176</v>
+        <v>43870</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1989007273177251</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1421930570120347</v>
+        <v>0.1352801092696388</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2739198774456</v>
+        <v>0.2720188845040887</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -927,19 +927,19 @@
         <v>84727</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68684</v>
+        <v>70229</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103455</v>
+        <v>103042</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1973696342600635</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1599995437426157</v>
+        <v>0.1635972470789798</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2409966124030966</v>
+        <v>0.2400348882715974</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>67916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54024</v>
+        <v>55036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84580</v>
+        <v>84853</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2534165062180721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2015807885912975</v>
+        <v>0.205356706268486</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3155947613563636</v>
+        <v>0.3166138179097879</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -977,19 +977,19 @@
         <v>39023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28706</v>
+        <v>28649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51160</v>
+        <v>51585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2419671629122359</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1779963077653513</v>
+        <v>0.1776379071882686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3172241918910434</v>
+        <v>0.3198594055028548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -998,19 +998,19 @@
         <v>106940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89496</v>
+        <v>89408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124728</v>
+        <v>126277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2491151152735329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.208480504074702</v>
+        <v>0.2082752990362823</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2905517717295946</v>
+        <v>0.2941615669589923</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>112752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>95507</v>
+        <v>97308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129110</v>
+        <v>130161</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4207110581089121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3563638649889626</v>
+        <v>0.3630864360279571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4817492216600456</v>
+        <v>0.4856706478094506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -1048,19 +1048,19 @@
         <v>66669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55549</v>
+        <v>53953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80755</v>
+        <v>81415</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4133877436661386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3444353424197221</v>
+        <v>0.3345398895698349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5007266820998559</v>
+        <v>0.5048188778302265</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -1069,19 +1069,19 @@
         <v>179421</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>158596</v>
+        <v>159406</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>199982</v>
+        <v>199576</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4179597703200219</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3694478318950016</v>
+        <v>0.3713348224269476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4658565205163244</v>
+        <v>0.4649100148585809</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>29646</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18542</v>
+        <v>19414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42353</v>
+        <v>42711</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07253553445639879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.045367085682699</v>
+        <v>0.04750121765905711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1036255254618739</v>
+        <v>0.1045022588376101</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1194,19 +1194,19 @@
         <v>23172</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14668</v>
+        <v>14696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34042</v>
+        <v>33898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08603373336078274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05446078916118971</v>
+        <v>0.05456399092393403</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1263905899968009</v>
+        <v>0.125856849005123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1215,19 +1215,19 @@
         <v>52818</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39498</v>
+        <v>38760</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70152</v>
+        <v>71256</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07789739107970294</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05825188159493746</v>
+        <v>0.05716468346227431</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.103461301594141</v>
+        <v>0.1050903513447232</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>26872</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18063</v>
+        <v>17445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39653</v>
+        <v>39495</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06574828660090551</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04419503960026556</v>
+        <v>0.04268421837879342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09701982287041037</v>
+        <v>0.09663383135818863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1265,19 +1265,19 @@
         <v>22931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15100</v>
+        <v>15081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32812</v>
+        <v>34894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08513699618464479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05606249295579341</v>
+        <v>0.05599226592529711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1218238743336573</v>
+        <v>0.1295556266799693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -1286,19 +1286,19 @@
         <v>49803</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37200</v>
+        <v>36566</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66321</v>
+        <v>65820</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07345001641206787</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05486286098101579</v>
+        <v>0.05392811547990446</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09781205363350048</v>
+        <v>0.09707295368789608</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>84754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68377</v>
+        <v>67615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103123</v>
+        <v>101332</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2073711102538223</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1673011798243394</v>
+        <v>0.1654364648883639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2523135533023014</v>
+        <v>0.2479328999824758</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -1336,19 +1336,19 @@
         <v>56856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44740</v>
+        <v>43981</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74417</v>
+        <v>72156</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2110929774798123</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1661104246220383</v>
+        <v>0.1632917557871538</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2762949792110562</v>
+        <v>0.2678995070965485</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>131</v>
@@ -1357,19 +1357,19 @@
         <v>141610</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>121299</v>
+        <v>121568</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>165776</v>
+        <v>164384</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2088495384928855</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1788944246459721</v>
+        <v>0.1792915443761355</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2444898321925413</v>
+        <v>0.2424371936061809</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>94039</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77619</v>
+        <v>77985</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113590</v>
+        <v>112547</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2300895094699399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1899142758758678</v>
+        <v>0.1908085074523949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.277924678809072</v>
+        <v>0.2753736964143523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1407,19 +1407,19 @@
         <v>56375</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41851</v>
+        <v>44278</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70571</v>
+        <v>71797</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2093082752332667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1553858423927184</v>
+        <v>0.164396655554265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2620148397188156</v>
+        <v>0.2665684484317425</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -1428,19 +1428,19 @@
         <v>150414</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127990</v>
+        <v>128692</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173806</v>
+        <v>172916</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2218346304878149</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1887634031638957</v>
+        <v>0.1897983182070357</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.256333516431985</v>
+        <v>0.2550209552219466</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>173397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152364</v>
+        <v>152723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>193012</v>
+        <v>193008</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4242555592189335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3727948535212157</v>
+        <v>0.3736718009875021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4722493568461793</v>
+        <v>0.4722403264946733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -1478,19 +1478,19 @@
         <v>110006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91473</v>
+        <v>92906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126575</v>
+        <v>126727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4084280177414934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3396189203193386</v>
+        <v>0.3449405858417845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4699476972672691</v>
+        <v>0.4705101409033125</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>259</v>
@@ -1499,19 +1499,19 @@
         <v>283402</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>257404</v>
+        <v>258842</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>309216</v>
+        <v>312862</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4179684235275287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3796252653587104</v>
+        <v>0.3817460171277367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4560396081743757</v>
+        <v>0.4614167776064158</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>22687</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14009</v>
+        <v>15411</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33703</v>
+        <v>33979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07124204801976726</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04399324958439915</v>
+        <v>0.04839358890540471</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1058353695116463</v>
+        <v>0.1067036790594495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1624,19 +1624,19 @@
         <v>24692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16558</v>
+        <v>16372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36636</v>
+        <v>34782</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1151998060037764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07725139314921302</v>
+        <v>0.07638369986755179</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1709246466119491</v>
+        <v>0.1622728729473911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1645,19 +1645,19 @@
         <v>47379</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34526</v>
+        <v>35782</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61351</v>
+        <v>63590</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08892638173893344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06480309095834558</v>
+        <v>0.06716098949191543</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1151512544316251</v>
+        <v>0.1193537460730385</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>30488</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20714</v>
+        <v>21165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43648</v>
+        <v>42909</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09574162545765641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06504658039069212</v>
+        <v>0.06646261128137283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.137065819726108</v>
+        <v>0.1347446022551551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1695,19 +1695,19 @@
         <v>14542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7753</v>
+        <v>7955</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25131</v>
+        <v>25538</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06784432935244443</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0361716853659018</v>
+        <v>0.03711230058339404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1172491842737</v>
+        <v>0.1191447988225414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1716,19 +1716,19 @@
         <v>45030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31927</v>
+        <v>32434</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60124</v>
+        <v>59396</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08451846220245962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05992516525522572</v>
+        <v>0.06087596659948886</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1128481577925624</v>
+        <v>0.1114820442573376</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>53058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40444</v>
+        <v>39634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66754</v>
+        <v>68012</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1666155712398669</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1270057720859093</v>
+        <v>0.1244615940594133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2096263705522222</v>
+        <v>0.2135756566719363</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -1766,19 +1766,19 @@
         <v>36813</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26343</v>
+        <v>26354</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49970</v>
+        <v>50858</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1717478697699716</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1229010377414179</v>
+        <v>0.1229542230159553</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2331307484849708</v>
+        <v>0.2372751813931033</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -1787,19 +1787,19 @@
         <v>89871</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>73239</v>
+        <v>73670</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>109722</v>
+        <v>110554</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1686803098460937</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1374644016452017</v>
+        <v>0.1382729897173191</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2059410158409652</v>
+        <v>0.2075012074954106</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>68873</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54784</v>
+        <v>53954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84688</v>
+        <v>85292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2162797277070659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1720346284280196</v>
+        <v>0.169430387645231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2659407785237331</v>
+        <v>0.267839966989766</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1837,19 +1837,19 @@
         <v>52605</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40586</v>
+        <v>40122</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67922</v>
+        <v>66407</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2454259922037774</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1893525888504048</v>
+        <v>0.1871884954506919</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3168873902890995</v>
+        <v>0.3098190198576994</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -1858,19 +1858,19 @@
         <v>121478</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101297</v>
+        <v>103052</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141841</v>
+        <v>143213</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2280053545739874</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1901269577165377</v>
+        <v>0.1934215023464161</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2662244965555202</v>
+        <v>0.2688005382857894</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>143339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>124364</v>
+        <v>124560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162869</v>
+        <v>162992</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4501210275756437</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3905362829764986</v>
+        <v>0.3911505932181778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5114499659891053</v>
+        <v>0.5118359417445265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -1908,19 +1908,19 @@
         <v>85690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70440</v>
+        <v>70074</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101093</v>
+        <v>100534</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3997820026700302</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3286350181055067</v>
+        <v>0.3269263393275856</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4716437264369425</v>
+        <v>0.4690340463969708</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>202</v>
@@ -1929,19 +1929,19 @@
         <v>229028</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>202278</v>
+        <v>202827</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253797</v>
+        <v>252535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4298694916385259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3796608262659628</v>
+        <v>0.3806906401212549</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4763574807410823</v>
+        <v>0.4739896482414323</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>34756</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24873</v>
+        <v>24427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48599</v>
+        <v>49379</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08341034816733266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05969191155945812</v>
+        <v>0.05862119280552867</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1166319870299305</v>
+        <v>0.1185025538508568</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2054,19 +2054,19 @@
         <v>29306</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19527</v>
+        <v>19846</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40505</v>
+        <v>42187</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09843432136093305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0655876408100025</v>
+        <v>0.06665936327223083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1360507336229798</v>
+        <v>0.1416975380545999</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -2075,19 +2075,19 @@
         <v>64062</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51260</v>
+        <v>49078</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82458</v>
+        <v>81155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08967141861675927</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07175143159145887</v>
+        <v>0.06869759231998621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1154213400398528</v>
+        <v>0.1135977322960569</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>33519</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22885</v>
+        <v>24474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45650</v>
+        <v>46216</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08044227021480559</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05492103541682699</v>
+        <v>0.05873431578165683</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1095537120347382</v>
+        <v>0.1109125545058444</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -2125,19 +2125,19 @@
         <v>28782</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19238</v>
+        <v>19337</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40458</v>
+        <v>40292</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0966733818796643</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06461823522451779</v>
+        <v>0.06495036229519419</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1358925252243779</v>
+        <v>0.135334297917138</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>59</v>
@@ -2146,19 +2146,19 @@
         <v>62301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48747</v>
+        <v>47903</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>79246</v>
+        <v>78754</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08720640193260433</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06823347220440494</v>
+        <v>0.06705241029861123</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1109243930574049</v>
+        <v>0.1102367319160594</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>96434</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80201</v>
+        <v>79956</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>115315</v>
+        <v>113132</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2314289275080325</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1924717639077615</v>
+        <v>0.191884788397217</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2767426208086992</v>
+        <v>0.2715021071166331</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>70</v>
@@ -2196,19 +2196,19 @@
         <v>75823</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61706</v>
+        <v>62435</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92021</v>
+        <v>93018</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2546767381960561</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2072594426191513</v>
+        <v>0.2097076900783003</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3090823638304489</v>
+        <v>0.3124326442526132</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>165</v>
@@ -2217,19 +2217,19 @@
         <v>172257</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>150228</v>
+        <v>147484</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>195118</v>
+        <v>194881</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2411171889710289</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2102820889642749</v>
+        <v>0.2064420765133597</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2731167106149704</v>
+        <v>0.2727855074675649</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>116785</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99440</v>
+        <v>97030</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>137058</v>
+        <v>135861</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2802705734869342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2386440049755988</v>
+        <v>0.2328603960394475</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3289229926772043</v>
+        <v>0.3260492810719333</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>76</v>
@@ -2267,19 +2267,19 @@
         <v>77812</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63449</v>
+        <v>63328</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94979</v>
+        <v>92082</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2613571031340391</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2131157953631482</v>
+        <v>0.2127077259206461</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.319018017548804</v>
+        <v>0.3092877119790627</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>193</v>
@@ -2288,19 +2288,19 @@
         <v>194597</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>172744</v>
+        <v>171466</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>217765</v>
+        <v>220817</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2723885992051204</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2417992949794867</v>
+        <v>0.2400101033135815</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3048169838134752</v>
+        <v>0.3090895533103468</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>135194</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>116751</v>
+        <v>115159</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>157941</v>
+        <v>155359</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.324447880622895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2801875815082179</v>
+        <v>0.276368123258785</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3790397428943981</v>
+        <v>0.3728424716869347</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>82</v>
@@ -2338,19 +2338,19 @@
         <v>86000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70798</v>
+        <v>72122</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103813</v>
+        <v>105654</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2888584554293074</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2377969340805384</v>
+        <v>0.2422457475843772</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3486883081063194</v>
+        <v>0.3548744016689078</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>209</v>
@@ -2359,19 +2359,19 @@
         <v>221193</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>197787</v>
+        <v>196784</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>246644</v>
+        <v>247419</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3096163912744871</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2768538695802284</v>
+        <v>0.2754486276123212</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3452410361020361</v>
+        <v>0.3463262755590724</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>106200</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>87397</v>
+        <v>86607</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>129566</v>
+        <v>129461</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07522095361761556</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0619028901438648</v>
+        <v>0.06134331316952366</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09177055125406466</v>
+        <v>0.09169609662818674</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -2484,19 +2484,19 @@
         <v>89869</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73826</v>
+        <v>72350</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109638</v>
+        <v>109644</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09533394981227525</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0783149449410992</v>
+        <v>0.07674906949030405</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1163045972125653</v>
+        <v>0.1163107684416739</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>180</v>
@@ -2505,19 +2505,19 @@
         <v>196070</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>170349</v>
+        <v>171463</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>226347</v>
+        <v>226281</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08327357661506653</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07234948719144293</v>
+        <v>0.07282258876421793</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09613262471602632</v>
+        <v>0.09610484384667578</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>106454</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>85869</v>
+        <v>88527</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>128662</v>
+        <v>129913</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07540071120087653</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06082050452433265</v>
+        <v>0.062702982633789</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09113046641747685</v>
+        <v>0.09201612864960805</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>72</v>
@@ -2555,19 +2555,19 @@
         <v>77061</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>61577</v>
+        <v>60263</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>97540</v>
+        <v>95711</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08174643217928525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06532173201304209</v>
+        <v>0.06392710997800555</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1034711640844759</v>
+        <v>0.1015307020790547</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>168</v>
@@ -2576,19 +2576,19 @@
         <v>183515</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>160108</v>
+        <v>158224</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>211738</v>
+        <v>211797</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07794134205426022</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06800008971131921</v>
+        <v>0.06719980927360129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08992807625678156</v>
+        <v>0.08995306485937722</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>286895</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>259848</v>
+        <v>256352</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>316934</v>
+        <v>316722</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2032055423802847</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.184048870366657</v>
+        <v>0.1815722912455053</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2244824102571963</v>
+        <v>0.2243317893349245</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>183</v>
@@ -2626,19 +2626,19 @@
         <v>201569</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>176009</v>
+        <v>175778</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>228145</v>
+        <v>227374</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2138259129828706</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1867118145863859</v>
+        <v>0.1864663687120892</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2420173455731182</v>
+        <v>0.241199909289925</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>462</v>
@@ -2647,19 +2647,19 @@
         <v>488464</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>448524</v>
+        <v>448400</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>530305</v>
+        <v>530749</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2074576110292383</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1904944677211192</v>
+        <v>0.1904420082448295</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2252281666701296</v>
+        <v>0.2254167168874897</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>347615</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>315201</v>
+        <v>316675</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>383844</v>
+        <v>382787</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2462130434368883</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2232548428508132</v>
+        <v>0.2242985261588526</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2718741615156556</v>
+        <v>0.2711257073274976</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>212</v>
@@ -2697,19 +2697,19 @@
         <v>225815</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>200424</v>
+        <v>200741</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>252483</v>
+        <v>255425</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2395462771448153</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.212611158598557</v>
+        <v>0.2129477199828333</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2678360441654634</v>
+        <v>0.2709569704420894</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>542</v>
@@ -2718,19 +2718,19 @@
         <v>573430</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>530805</v>
+        <v>530736</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>615695</v>
+        <v>618159</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2435438759472414</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2254402614190791</v>
+        <v>0.2254113459184932</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2614945516840952</v>
+        <v>0.2625410071000623</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>564681</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>532222</v>
+        <v>529047</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>607404</v>
+        <v>602755</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.399959749364335</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3769689428107616</v>
+        <v>0.3747203558403966</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4302202542700357</v>
+        <v>0.4269271323147212</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>318</v>
@@ -2768,19 +2768,19 @@
         <v>348365</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>320642</v>
+        <v>316269</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>380576</v>
+        <v>378832</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3695474278807536</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3401392641281529</v>
+        <v>0.3355005288077719</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4037179503833256</v>
+        <v>0.4018674011908153</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>843</v>
@@ -2789,19 +2789,19 @@
         <v>913046</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>864428</v>
+        <v>868677</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>963244</v>
+        <v>960570</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3877835943541936</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3671351226360036</v>
+        <v>0.3689393572149648</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4091036470984649</v>
+        <v>0.4079676634478853</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>27895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19140</v>
+        <v>19046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39376</v>
+        <v>39367</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1155944288564507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07931279698386554</v>
+        <v>0.07892539383364064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1631665581201683</v>
+        <v>0.1631316009152168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -3154,19 +3154,19 @@
         <v>30162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20793</v>
+        <v>20620</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40842</v>
+        <v>40801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1836559831449318</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1266045219010399</v>
+        <v>0.1255565232642278</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2486818296624932</v>
+        <v>0.2484379622815826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -3175,19 +3175,19 @@
         <v>58058</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44555</v>
+        <v>44538</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73247</v>
+        <v>74342</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1431565652512646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1098622652794041</v>
+        <v>0.1098208454307228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1806093229969719</v>
+        <v>0.1833109918200051</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>34900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24908</v>
+        <v>25240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47918</v>
+        <v>47169</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1446198356073814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.103213240877383</v>
+        <v>0.1045924595521175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1985639795180523</v>
+        <v>0.1954616520074556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -3225,19 +3225,19 @@
         <v>19677</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12844</v>
+        <v>12901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29203</v>
+        <v>28691</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1198098986337745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07820755716763063</v>
+        <v>0.07855353455887973</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.177813742726</v>
+        <v>0.1746952968773705</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -3246,19 +3246,19 @@
         <v>54576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42165</v>
+        <v>41475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68567</v>
+        <v>68905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1345728292766867</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1039699374385877</v>
+        <v>0.1022684653585384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1690712061388207</v>
+        <v>0.1699031607818766</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>55634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43204</v>
+        <v>43774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69628</v>
+        <v>69543</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2305394165866786</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1790302935450901</v>
+        <v>0.1813946383114906</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2885295450881214</v>
+        <v>0.28817616908201</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -3296,19 +3296,19 @@
         <v>29481</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21355</v>
+        <v>21435</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40055</v>
+        <v>40183</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1795067322697184</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1300309951539954</v>
+        <v>0.1305145445396124</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2438930617781949</v>
+        <v>0.2446703356059654</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -3317,19 +3317,19 @@
         <v>85115</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>70933</v>
+        <v>70890</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102213</v>
+        <v>102625</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2098732737040793</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1749037292926583</v>
+        <v>0.1747990680107956</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2520331762841088</v>
+        <v>0.25304938147019</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>53590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42752</v>
+        <v>40189</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69228</v>
+        <v>67847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2220700146752061</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1771581329662076</v>
+        <v>0.1665357997694885</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2868713400501826</v>
+        <v>0.2811493260816357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -3367,19 +3367,19 @@
         <v>54487</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43210</v>
+        <v>43653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66050</v>
+        <v>66585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3317659280985062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2631055302030083</v>
+        <v>0.2657981187592448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4021756603639883</v>
+        <v>0.405430689030413</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -3388,19 +3388,19 @@
         <v>108077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91970</v>
+        <v>91255</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127674</v>
+        <v>127229</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2664923579398293</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2267773222720125</v>
+        <v>0.2250133558561185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3148144394222264</v>
+        <v>0.3137182003017242</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>69302</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56225</v>
+        <v>55098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>83048</v>
+        <v>85098</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2871763042742831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2329876733509561</v>
+        <v>0.2283164042876817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.344140974313031</v>
+        <v>0.3526332496902125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -3438,19 +3438,19 @@
         <v>30426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21676</v>
+        <v>21876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41161</v>
+        <v>40603</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1852614578530691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1319835887451396</v>
+        <v>0.1332030372279898</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2506278916208393</v>
+        <v>0.2472271568724828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>96</v>
@@ -3459,19 +3459,19 @@
         <v>99727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84440</v>
+        <v>81913</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>120203</v>
+        <v>118206</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2459049738281401</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2082095739720466</v>
+        <v>0.2019781898064584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2963939053690891</v>
+        <v>0.2914695260019211</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>28072</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18659</v>
+        <v>18816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40411</v>
+        <v>40978</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06793074266829269</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04515337971108953</v>
+        <v>0.04553255374942683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09778954361226848</v>
+        <v>0.0991611637921096</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3584,19 +3584,19 @@
         <v>31643</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22505</v>
+        <v>22009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44498</v>
+        <v>44532</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1160125697276197</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08251168842596023</v>
+        <v>0.08069211343572875</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1631450504356618</v>
+        <v>0.1632690120744805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -3605,19 +3605,19 @@
         <v>59715</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46006</v>
+        <v>45438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75488</v>
+        <v>75400</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08704798763693788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06706420843519612</v>
+        <v>0.06623597468282398</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1100417002947252</v>
+        <v>0.109913588373589</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>63816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50697</v>
+        <v>50029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81574</v>
+        <v>81717</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1544271147611043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1226793874497672</v>
+        <v>0.1210646645995928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1973993035125337</v>
+        <v>0.1977437297863112</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -3655,19 +3655,19 @@
         <v>43936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32270</v>
+        <v>32459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56654</v>
+        <v>57372</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1610856906582967</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1183119468426918</v>
+        <v>0.1190072583803499</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2077147923614613</v>
+        <v>0.2103463006300373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>102</v>
@@ -3676,19 +3676,19 @@
         <v>107753</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89322</v>
+        <v>90649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>128708</v>
+        <v>127367</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.157074552147622</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1302075923645434</v>
+        <v>0.1321414453973925</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1876212884542035</v>
+        <v>0.1856663400312572</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>113744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95203</v>
+        <v>95707</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133593</v>
+        <v>134141</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2752446569745152</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2303796100451971</v>
+        <v>0.2315978227778352</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3232783712346883</v>
+        <v>0.3246025158284327</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -3726,19 +3726,19 @@
         <v>63697</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49769</v>
+        <v>50290</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78000</v>
+        <v>77156</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2335357612062935</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1824691114946966</v>
+        <v>0.1843801580754096</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2859765561741905</v>
+        <v>0.2828792613427587</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>165</v>
@@ -3747,19 +3747,19 @@
         <v>177441</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>153620</v>
+        <v>151283</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>202789</v>
+        <v>200445</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2586612776285319</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2239375648781957</v>
+        <v>0.220530182778559</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2956115817589746</v>
+        <v>0.2921944656768971</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>89564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72086</v>
+        <v>73303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106810</v>
+        <v>107431</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2167340169388461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1744376892150614</v>
+        <v>0.177382662610117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2584664760111904</v>
+        <v>0.2599686769393195</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -3797,19 +3797,19 @@
         <v>71714</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58310</v>
+        <v>58368</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87369</v>
+        <v>87336</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2629268520488078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2137838878931086</v>
+        <v>0.213995794661016</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3203239331815332</v>
+        <v>0.320204372421204</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -3818,19 +3818,19 @@
         <v>161278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139937</v>
+        <v>141808</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183984</v>
+        <v>186549</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2351002022234394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2039910292481588</v>
+        <v>0.2067177527750981</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2681999340653647</v>
+        <v>0.2719384766378623</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>118049</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99183</v>
+        <v>99314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138798</v>
+        <v>137551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2856634686572418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2400092541104983</v>
+        <v>0.2403261996931244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.335873223469656</v>
+        <v>0.3328555729580831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -3868,19 +3868,19 @@
         <v>61761</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48376</v>
+        <v>48411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76505</v>
+        <v>76786</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2264391263589823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1773640062872138</v>
+        <v>0.1774921987159318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2804946373086262</v>
+        <v>0.2815240440158981</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>162</v>
@@ -3889,19 +3889,19 @@
         <v>179811</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155714</v>
+        <v>155818</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>205600</v>
+        <v>205264</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2621159803634688</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2269892541165536</v>
+        <v>0.2271410937800364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2997101145168827</v>
+        <v>0.2992200997051521</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>39837</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27497</v>
+        <v>28432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53723</v>
+        <v>54242</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1098140582441755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07579839338560024</v>
+        <v>0.07837505300388921</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1480916870876453</v>
+        <v>0.1495213503660455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -4014,19 +4014,19 @@
         <v>18264</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11439</v>
+        <v>10897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27493</v>
+        <v>29105</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06776502899188243</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04244192213536151</v>
+        <v>0.04043236112306772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1020062076294253</v>
+        <v>0.1079882087048455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -4035,19 +4035,19 @@
         <v>58102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44720</v>
+        <v>43945</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77101</v>
+        <v>75091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0918900699970481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07072668753262289</v>
+        <v>0.06950104442348214</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1219379751129202</v>
+        <v>0.1187598633029937</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>50257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38098</v>
+        <v>38114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65717</v>
+        <v>63509</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1385380415693818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1050206928365725</v>
+        <v>0.1050626613274157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1811531932413862</v>
+        <v>0.1750672868691362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -4085,19 +4085,19 @@
         <v>46096</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34656</v>
+        <v>33883</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59512</v>
+        <v>57533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1710257020972709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1285808824621849</v>
+        <v>0.125716054735077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2208038916789339</v>
+        <v>0.2134603212396705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -4106,19 +4106,19 @@
         <v>96353</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81136</v>
+        <v>78289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>116018</v>
+        <v>114524</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1523863623471271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1283192947123102</v>
+        <v>0.1238174632446499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1834867286251313</v>
+        <v>0.1811250402303897</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>121430</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>101612</v>
+        <v>100769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>139634</v>
+        <v>140495</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3347307762184611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2801012649993117</v>
+        <v>0.2777755217270779</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3849104668917176</v>
+        <v>0.3872850023622595</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>90</v>
@@ -4156,19 +4156,19 @@
         <v>90807</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76253</v>
+        <v>76216</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107264</v>
+        <v>107961</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3369152063655871</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.282917303019709</v>
+        <v>0.2827817496966034</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3979758263864428</v>
+        <v>0.4005628409130541</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>196</v>
@@ -4177,19 +4177,19 @@
         <v>212237</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>187076</v>
+        <v>189154</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>237232</v>
+        <v>235651</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3356619201944334</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2958683176690474</v>
+        <v>0.2991550437829979</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3751919695625136</v>
+        <v>0.3726927160286045</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>76963</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61925</v>
+        <v>61039</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94841</v>
+        <v>95244</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.21215391960759</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1706995011610971</v>
+        <v>0.1682578728675229</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2614358209757505</v>
+        <v>0.262546844709081</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -4227,19 +4227,19 @@
         <v>53897</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41717</v>
+        <v>42190</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68776</v>
+        <v>69560</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1999718613875985</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1547786079339633</v>
+        <v>0.1565360926771951</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2551761410277865</v>
+        <v>0.2580844440876266</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -4248,19 +4248,19 @@
         <v>130860</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110787</v>
+        <v>109791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153876</v>
+        <v>153762</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2069611464985879</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1752144073732159</v>
+        <v>0.1736387966085726</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2433622230621919</v>
+        <v>0.243181505458897</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>74282</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59809</v>
+        <v>60097</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91423</v>
+        <v>92168</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2047632043603916</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1648687361618765</v>
+        <v>0.1656610358726711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.252013006530231</v>
+        <v>0.2540682691668681</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -4298,19 +4298,19 @@
         <v>60460</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47271</v>
+        <v>46941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73091</v>
+        <v>75221</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2243222011576611</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1753867447564977</v>
+        <v>0.1741617449418758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2711868308149156</v>
+        <v>0.2790872720663494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>126</v>
@@ -4319,19 +4319,19 @@
         <v>134742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>115024</v>
+        <v>113656</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158075</v>
+        <v>155338</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2131005009628035</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1819150814137607</v>
+        <v>0.1797522599518903</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.250002199105702</v>
+        <v>0.2456734192469474</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>39609</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28611</v>
+        <v>28238</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53456</v>
+        <v>53677</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09927136875443721</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07170637854276857</v>
+        <v>0.0707705659168196</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1339758250769269</v>
+        <v>0.1345278267054665</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -4444,19 +4444,19 @@
         <v>39901</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29131</v>
+        <v>27594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53186</v>
+        <v>53724</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1225926305824786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08950349420002029</v>
+        <v>0.08478239743238306</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1634110771748647</v>
+        <v>0.1650645098860273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -4465,19 +4465,19 @@
         <v>79510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64334</v>
+        <v>64502</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>100252</v>
+        <v>97890</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1097485698353464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0888008785854702</v>
+        <v>0.08903261678847647</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1383785913668212</v>
+        <v>0.1351182790487581</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>45522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34082</v>
+        <v>34306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59427</v>
+        <v>58780</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1140909855348413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08541787371525426</v>
+        <v>0.08597951540446404</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1489382272980161</v>
+        <v>0.1473190546214722</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>45</v>
@@ -4515,19 +4515,19 @@
         <v>47315</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35890</v>
+        <v>35912</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>62522</v>
+        <v>62176</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1453733169264533</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1102712856494662</v>
+        <v>0.1103372667052213</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1920949875747838</v>
+        <v>0.1910328092187276</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>90</v>
@@ -4536,19 +4536,19 @@
         <v>92838</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>76940</v>
+        <v>74795</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>113296</v>
+        <v>111681</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1281447395163463</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1062012725235804</v>
+        <v>0.103240265753817</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1563836926471122</v>
+        <v>0.15415474963048</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>105314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>89008</v>
+        <v>88366</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>124195</v>
+        <v>123781</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.263943129402634</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2230769601235564</v>
+        <v>0.2214686196013574</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3112644008791923</v>
+        <v>0.3102276084191996</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -4586,19 +4586,19 @@
         <v>89935</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74676</v>
+        <v>73513</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>108448</v>
+        <v>106439</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2763189872211929</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2294379741501762</v>
+        <v>0.225863812786383</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3332007580117159</v>
+        <v>0.3270268899379621</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>193</v>
@@ -4607,19 +4607,19 @@
         <v>195248</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>168898</v>
+        <v>171060</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>217257</v>
+        <v>221844</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2695030494391166</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2331319544531577</v>
+        <v>0.2361156088258154</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.299881788627634</v>
+        <v>0.3062133188765288</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>98907</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81803</v>
+        <v>83715</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>116899</v>
+        <v>118248</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2478858480011366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2050192251595245</v>
+        <v>0.2098116033781853</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2929803040114659</v>
+        <v>0.2963591084041114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -4657,19 +4657,19 @@
         <v>61243</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48442</v>
+        <v>47272</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77485</v>
+        <v>76663</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1881654182029658</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1488365718674498</v>
+        <v>0.1452396788413793</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2380677360069692</v>
+        <v>0.2355425107464992</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>154</v>
@@ -4678,19 +4678,19 @@
         <v>160150</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>139531</v>
+        <v>138975</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>182849</v>
+        <v>185932</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2210561268545125</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1925964025950564</v>
+        <v>0.1918280329672931</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2523883477853421</v>
+        <v>0.2566439757249079</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>109649</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92721</v>
+        <v>92285</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>128552</v>
+        <v>127198</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2748086683069509</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2323836636657305</v>
+        <v>0.231290901936509</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3221838467588497</v>
+        <v>0.318791760686593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>80</v>
@@ -4728,19 +4728,19 @@
         <v>87080</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>71601</v>
+        <v>71252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104376</v>
+        <v>103559</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2675496470669095</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2199892594223127</v>
+        <v>0.2189174877913201</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3206884175329902</v>
+        <v>0.3181792269613464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>187</v>
@@ -4749,19 +4749,19 @@
         <v>196729</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>173697</v>
+        <v>174336</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>223600</v>
+        <v>222518</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2715475143546782</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2397551516747196</v>
+        <v>0.2406376157761024</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.308636620971862</v>
+        <v>0.3071436003070765</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>135414</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>113787</v>
+        <v>113524</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>159998</v>
+        <v>159135</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09560859630778333</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08033867189712543</v>
+        <v>0.08015320157799609</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1129657734908821</v>
+        <v>0.1123568478719251</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>114</v>
@@ -4874,19 +4874,19 @@
         <v>119970</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101019</v>
+        <v>100701</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>143146</v>
+        <v>142373</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1162519165793094</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09788857024152436</v>
+        <v>0.09758042548393267</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1387094015950927</v>
+        <v>0.137961013437099</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>238</v>
@@ -4895,19 +4895,19 @@
         <v>255384</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>228111</v>
+        <v>227106</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>287232</v>
+        <v>287344</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1043098859139086</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09317042500768982</v>
+        <v>0.09275988660176217</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1173182615735414</v>
+        <v>0.1173637742131466</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>194496</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>169006</v>
+        <v>170405</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>223786</v>
+        <v>224635</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1373231902961236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.119326315643979</v>
+        <v>0.1203139885982938</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1580031602093279</v>
+        <v>0.1586031114324928</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>155</v>
@@ -4945,19 +4945,19 @@
         <v>157024</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>134361</v>
+        <v>135235</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>180332</v>
+        <v>181168</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1521575090823673</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.130197519875474</v>
+        <v>0.1310441243980009</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1747437356600756</v>
+        <v>0.1755533816710771</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>338</v>
@@ -4966,19 +4966,19 @@
         <v>351520</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>317672</v>
+        <v>319884</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>386164</v>
+        <v>389106</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1435759491629582</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1297509604409512</v>
+        <v>0.1306546818640814</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1577261566333893</v>
+        <v>0.1589278693809477</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>396121</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>361457</v>
+        <v>363342</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>431677</v>
+        <v>435729</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2796801439401208</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2552057843563842</v>
+        <v>0.256536487177198</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3047838513065165</v>
+        <v>0.3076451323028218</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>273</v>
@@ -5016,19 +5016,19 @@
         <v>273919</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>246091</v>
+        <v>247248</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>301388</v>
+        <v>306852</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2654304884971297</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2384647189386752</v>
+        <v>0.2395857188060451</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2920474812662015</v>
+        <v>0.297342248589875</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>639</v>
@@ -5037,19 +5037,19 @@
         <v>670041</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>625384</v>
+        <v>622649</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>713358</v>
+        <v>711832</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2736738243575104</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2554340905742915</v>
+        <v>0.254317195702238</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2913665751450307</v>
+        <v>0.2907432131192717</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>319024</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>288166</v>
+        <v>290682</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>353448</v>
+        <v>352353</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2252459535106222</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2034585079881952</v>
+        <v>0.2052349759058956</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2495505276002287</v>
+        <v>0.2487773756758838</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>239</v>
@@ -5087,19 +5087,19 @@
         <v>241341</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>214809</v>
+        <v>215093</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>269338</v>
+        <v>267545</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2338612157605934</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2081517794248036</v>
+        <v>0.2084275357426549</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2609910365694293</v>
+        <v>0.2592535213226542</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>539</v>
@@ -5108,19 +5108,19 @@
         <v>560365</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>520472</v>
+        <v>521660</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>603975</v>
+        <v>605025</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2288773408496598</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2125833053902186</v>
+        <v>0.2130689029025283</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2466895650310997</v>
+        <v>0.2471186341380703</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>371282</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>338142</v>
+        <v>337651</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>405560</v>
+        <v>406789</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2621421159453501</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2387438008944741</v>
+        <v>0.2383970651318025</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2863444081615271</v>
+        <v>0.2872121426571494</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>227</v>
@@ -5158,19 +5158,19 @@
         <v>239728</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>213713</v>
+        <v>213823</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>269236</v>
+        <v>270235</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2322988700806002</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2070900199847099</v>
+        <v>0.2071961352681761</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2608923195213965</v>
+        <v>0.2618599208364539</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>571</v>
@@ -5179,19 +5179,19 @@
         <v>611010</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>566618</v>
+        <v>567501</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>657290</v>
+        <v>655379</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.249562999715963</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2314314612346433</v>
+        <v>0.2317921607646258</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2684659037273501</v>
+        <v>0.2676855517162912</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>11194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4711</v>
+        <v>4663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21433</v>
+        <v>20522</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1164674146440337</v>
+        <v>0.1164674146440338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04901535625695425</v>
+        <v>0.04851881113652698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2230029074342985</v>
+        <v>0.2135190171043545</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -5544,19 +5544,19 @@
         <v>14871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9396</v>
+        <v>9170</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22453</v>
+        <v>22764</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1938457457389543</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.122473867777123</v>
+        <v>0.1195345067562076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2926689260833332</v>
+        <v>0.2967232487441136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -5565,19 +5565,19 @@
         <v>26066</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17738</v>
+        <v>16600</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37239</v>
+        <v>37264</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1508150531089894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1026337817873245</v>
+        <v>0.09604479563485796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2154623622824247</v>
+        <v>0.2156093306010084</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>8397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3703</v>
+        <v>3949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16276</v>
+        <v>15768</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08736341846622221</v>
+        <v>0.08736341846622223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0385288725344589</v>
+        <v>0.04108410152178537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.169347216798008</v>
+        <v>0.1640519378535693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -5615,19 +5615,19 @@
         <v>8955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4368</v>
+        <v>4458</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16513</v>
+        <v>15814</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.116731053052928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05693821186264976</v>
+        <v>0.05811451267784822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2152479860046884</v>
+        <v>0.2061338382721955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -5636,19 +5636,19 @@
         <v>17352</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10590</v>
+        <v>10730</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26766</v>
+        <v>27106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1003994827116207</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06127200229345862</v>
+        <v>0.062085159532103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1548671074634492</v>
+        <v>0.1568346419254798</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>26546</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16515</v>
+        <v>16101</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38932</v>
+        <v>39662</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2761934288014884</v>
+        <v>0.2761934288014883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1718251169620247</v>
+        <v>0.1675238751379966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4050611907904901</v>
+        <v>0.4126635369982786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -5686,19 +5686,19 @@
         <v>19776</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13094</v>
+        <v>13817</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27621</v>
+        <v>27990</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2577716418350379</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1706801018172158</v>
+        <v>0.1801023904356505</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3600297863461492</v>
+        <v>0.364845895550686</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -5707,19 +5707,19 @@
         <v>46321</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34107</v>
+        <v>33450</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61290</v>
+        <v>60860</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2680161410563459</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1973430351822227</v>
+        <v>0.1935396396790407</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3546233108147812</v>
+        <v>0.3521383421425691</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>19163</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11850</v>
+        <v>12111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28092</v>
+        <v>29129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.199384635039404</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1232920083692549</v>
+        <v>0.126007251267816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2922797912122871</v>
+        <v>0.3030661746478125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5757,19 +5757,19 @@
         <v>13086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8026</v>
+        <v>8576</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18885</v>
+        <v>19752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1705691145340176</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1046228032792183</v>
+        <v>0.1117925088704799</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2461631340387729</v>
+        <v>0.25745648461598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -5778,19 +5778,19 @@
         <v>32249</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22795</v>
+        <v>23296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43122</v>
+        <v>42574</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1865936499342278</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.131890112823161</v>
+        <v>0.1347895506384511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2495018804995493</v>
+        <v>0.2463318777589348</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>30813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20327</v>
+        <v>19905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45413</v>
+        <v>44475</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3205911030488516</v>
+        <v>0.3205911030488517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.211487445989365</v>
+        <v>0.2070969780913277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4724913427467585</v>
+        <v>0.4627389713342064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -5828,19 +5828,19 @@
         <v>20030</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13757</v>
+        <v>13360</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29829</v>
+        <v>30556</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.261082444839062</v>
+        <v>0.2610824448390621</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1793146712442786</v>
+        <v>0.1741472853028992</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3888182621585797</v>
+        <v>0.3982920925226267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -5849,19 +5849,19 @@
         <v>50843</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37390</v>
+        <v>37766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67584</v>
+        <v>67973</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2941756731888163</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2163361788638975</v>
+        <v>0.2185159962140939</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.391041446925661</v>
+        <v>0.3932908318183546</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>11391</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5562</v>
+        <v>5589</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21813</v>
+        <v>21208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06701623113491442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03272313175923411</v>
+        <v>0.03288302690494833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1283318096489044</v>
+        <v>0.1247691443861884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -5974,19 +5974,19 @@
         <v>25637</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18115</v>
+        <v>18536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34166</v>
+        <v>34626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2065453160170121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1459450366159367</v>
+        <v>0.1493348132770424</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2752572338743945</v>
+        <v>0.2789636567399668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -5995,19 +5995,19 @@
         <v>37028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26523</v>
+        <v>27727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49536</v>
+        <v>48764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1259040898800063</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09018307616363166</v>
+        <v>0.0942775635539666</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1684347529724137</v>
+        <v>0.1658080080963194</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>29521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18835</v>
+        <v>17928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42083</v>
+        <v>43412</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1736792572405094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1108083758197123</v>
+        <v>0.1054715414150509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2475829798187888</v>
+        <v>0.2554014888221035</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -6045,19 +6045,19 @@
         <v>11947</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7005</v>
+        <v>7127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18824</v>
+        <v>18339</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09625196534208198</v>
+        <v>0.09625196534208197</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0564396511037241</v>
+        <v>0.05742022307497444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1516558944697459</v>
+        <v>0.1477498781777705</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -6066,19 +6066,19 @@
         <v>41468</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29245</v>
+        <v>29968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56011</v>
+        <v>58159</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1410012859617442</v>
+        <v>0.1410012859617441</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09943846125238079</v>
+        <v>0.1018987989331217</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1904503544768509</v>
+        <v>0.1977529506753244</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>53662</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40501</v>
+        <v>42108</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67815</v>
+        <v>69427</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3157033688418777</v>
+        <v>0.3157033688418776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2382782161307521</v>
+        <v>0.2477327310118026</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3989712787951623</v>
+        <v>0.4084524020899818</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -6116,19 +6116,19 @@
         <v>41199</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32414</v>
+        <v>31419</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51236</v>
+        <v>50571</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3319237025800444</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2611418810010948</v>
+        <v>0.2531248596666045</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4127861345761432</v>
+        <v>0.4074272958390729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -6137,19 +6137,19 @@
         <v>94861</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78820</v>
+        <v>79536</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>111730</v>
+        <v>113234</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3225491151805607</v>
+        <v>0.3225491151805606</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2680050957259438</v>
+        <v>0.2704398907231478</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.379909033100058</v>
+        <v>0.3850226931178594</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>30129</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20329</v>
+        <v>20871</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41690</v>
+        <v>41330</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1772567995341211</v>
+        <v>0.177256799534121</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1196011060448737</v>
+        <v>0.1227900402628387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2452721952205214</v>
+        <v>0.2431516491596781</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -6187,19 +6187,19 @@
         <v>20100</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13107</v>
+        <v>13708</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28560</v>
+        <v>29372</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1619326286540639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1055968884514653</v>
+        <v>0.1104368053120801</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.230094264167962</v>
+        <v>0.236634333800307</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -6208,19 +6208,19 @@
         <v>50229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37992</v>
+        <v>38035</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65468</v>
+        <v>63098</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.170789276215001</v>
+        <v>0.1707892762150009</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1291831087264315</v>
+        <v>0.1293290315824095</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2226072401209393</v>
+        <v>0.2145462821091458</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>45272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33613</v>
+        <v>33769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61110</v>
+        <v>60489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2663443432485775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1977506472272132</v>
+        <v>0.1986727301990923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3595210912789045</v>
+        <v>0.3558721767668415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -6258,19 +6258,19 @@
         <v>25240</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17100</v>
+        <v>17405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33522</v>
+        <v>34070</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2033463874067976</v>
+        <v>0.2033463874067975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1377696600845137</v>
+        <v>0.1402241922732484</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2700677443832972</v>
+        <v>0.2744831819392967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -6279,19 +6279,19 @@
         <v>70512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55510</v>
+        <v>57313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87178</v>
+        <v>88176</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.239756232762688</v>
+        <v>0.2397562327626879</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1887452747901071</v>
+        <v>0.1948766542003178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.296424421823939</v>
+        <v>0.2998193789653943</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>22461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13860</v>
+        <v>13345</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35675</v>
+        <v>35877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2435188794114787</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1502618723499091</v>
+        <v>0.1446838675242372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3867710567721218</v>
+        <v>0.3889625271497877</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -6404,19 +6404,19 @@
         <v>20472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12827</v>
+        <v>14179</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28150</v>
+        <v>28369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.225149654036565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1410683345969521</v>
+        <v>0.1559441537220812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3095909887705238</v>
+        <v>0.3120055763063301</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -6425,19 +6425,19 @@
         <v>42933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31345</v>
+        <v>31754</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57903</v>
+        <v>57935</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2344000304454134</v>
+        <v>0.2344000304454135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1711352342157492</v>
+        <v>0.1733681550717452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3161313071616614</v>
+        <v>0.3163041795988145</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>15814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8923</v>
+        <v>8547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26789</v>
+        <v>27195</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1714538793037109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09674372871256069</v>
+        <v>0.09266741404140526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2904319100734953</v>
+        <v>0.2948333575994175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -6475,19 +6475,19 @@
         <v>16531</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10319</v>
+        <v>10183</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24612</v>
+        <v>24593</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.181812384461339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1134930779236157</v>
+        <v>0.1119883708512189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2706800495153598</v>
+        <v>0.2704757068747829</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -6496,19 +6496,19 @@
         <v>32346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22338</v>
+        <v>22361</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44863</v>
+        <v>45191</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.176596047365714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.12195726434675</v>
+        <v>0.1220848770091336</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2449366065690455</v>
+        <v>0.2467289089688029</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>22383</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13999</v>
+        <v>14254</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33609</v>
+        <v>32642</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2426648661909043</v>
+        <v>0.2426648661909044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1517763016224509</v>
+        <v>0.1545327948572341</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3643796608370784</v>
+        <v>0.3538971230456772</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -6546,19 +6546,19 @@
         <v>24220</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17615</v>
+        <v>16956</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32114</v>
+        <v>32027</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2663755930143183</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1937276278727484</v>
+        <v>0.1864788101815683</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3531949841459507</v>
+        <v>0.3522306000973578</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>48</v>
@@ -6567,19 +6567,19 @@
         <v>46603</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34948</v>
+        <v>35220</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59739</v>
+        <v>60242</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2544353427551269</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1908015244530011</v>
+        <v>0.1922906507442387</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3261515053448096</v>
+        <v>0.3288983897116825</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>14383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7744</v>
+        <v>7872</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23780</v>
+        <v>24298</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1559354745439802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08396028036544101</v>
+        <v>0.0853456233242772</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2578138047661266</v>
+        <v>0.2634298373252795</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -6617,19 +6617,19 @@
         <v>13550</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8101</v>
+        <v>8469</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20744</v>
+        <v>20708</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1490222726851011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08909224621884215</v>
+        <v>0.09314727391950892</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2281438952278797</v>
+        <v>0.2277503228468856</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -6638,19 +6638,19 @@
         <v>27933</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18207</v>
+        <v>18595</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39050</v>
+        <v>39581</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1525036235902033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09940343866410709</v>
+        <v>0.1015228348160578</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.21320081979334</v>
+        <v>0.2160975279212355</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>17195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9293</v>
+        <v>10069</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27464</v>
+        <v>27952</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1864269005499259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1007471133395769</v>
+        <v>0.1091656936683895</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2977563944539428</v>
+        <v>0.3030502465020878</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -6688,19 +6688,19 @@
         <v>16152</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10384</v>
+        <v>10669</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23669</v>
+        <v>23574</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1776400958026766</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1142061710263173</v>
+        <v>0.1173422272430067</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2603101741242933</v>
+        <v>0.2592648079932604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -6709,19 +6709,19 @@
         <v>33347</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24202</v>
+        <v>23379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45158</v>
+        <v>46357</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1820649558435423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1321352048628941</v>
+        <v>0.1276397283011251</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2465472516298905</v>
+        <v>0.2530920603608442</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>32733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23172</v>
+        <v>23108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43217</v>
+        <v>43293</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2833224357670336</v>
+        <v>0.2833224357670335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2005624181759055</v>
+        <v>0.2000083873263112</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3740640529980402</v>
+        <v>0.3747217871408142</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -6834,19 +6834,19 @@
         <v>26219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18860</v>
+        <v>18504</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34960</v>
+        <v>33990</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2816980589970668</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2026315775045187</v>
+        <v>0.1988116374099265</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3756103073844343</v>
+        <v>0.3651884997200445</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -6855,19 +6855,19 @@
         <v>58952</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46666</v>
+        <v>46739</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71557</v>
+        <v>72730</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2825976878803576</v>
+        <v>0.2825976878803577</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2237029422452933</v>
+        <v>0.2240500541567402</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3430214617172838</v>
+        <v>0.3486444345419535</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>8558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3615</v>
+        <v>3639</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15681</v>
+        <v>15419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07407580266528307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03128776875781698</v>
+        <v>0.03149320405707901</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1357303866420333</v>
+        <v>0.1334600250373918</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -6905,19 +6905,19 @@
         <v>13637</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8193</v>
+        <v>8640</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20686</v>
+        <v>21044</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1465215662257902</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08802817028751252</v>
+        <v>0.09282737652685433</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2222512994842907</v>
+        <v>0.2260980334447422</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -6926,19 +6926,19 @@
         <v>22196</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14130</v>
+        <v>14956</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31804</v>
+        <v>33166</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1063989157569419</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06773446160115329</v>
+        <v>0.07169389130129812</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1524566261960003</v>
+        <v>0.1589861138133404</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>31199</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22048</v>
+        <v>21662</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42579</v>
+        <v>41868</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.270043195303038</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1908370501911634</v>
+        <v>0.1874914669420709</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3685410276664123</v>
+        <v>0.3623859000358091</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -6976,19 +6976,19 @@
         <v>15051</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9708</v>
+        <v>9716</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22280</v>
+        <v>21573</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1617132501257064</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1043027792198978</v>
+        <v>0.1043896024858819</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2393744383021245</v>
+        <v>0.2317847952402458</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>51</v>
@@ -6997,19 +6997,19 @@
         <v>46251</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>34702</v>
+        <v>36625</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58976</v>
+        <v>59118</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.221709643455585</v>
+        <v>0.2217096434555851</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1663509655767015</v>
+        <v>0.1755697847538349</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2827102066097296</v>
+        <v>0.283389688776565</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>19694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12462</v>
+        <v>11990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29570</v>
+        <v>29553</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1704563243255247</v>
+        <v>0.1704563243255246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1078600903915066</v>
+        <v>0.1037767582132841</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2559382006603192</v>
+        <v>0.2557910466718063</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -7047,19 +7047,19 @@
         <v>21892</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15195</v>
+        <v>15604</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29812</v>
+        <v>29743</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2352134005540087</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1632563396489036</v>
+        <v>0.1676524072420537</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.320297475755077</v>
+        <v>0.3195589669432877</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -7068,19 +7068,19 @@
         <v>41586</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30678</v>
+        <v>31708</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54671</v>
+        <v>55428</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1993489771950089</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1470615561845726</v>
+        <v>0.1519982867823559</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2620724133238291</v>
+        <v>0.2657009584531788</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>23350</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14807</v>
+        <v>15425</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32991</v>
+        <v>32842</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2021022419391207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1281616300959091</v>
+        <v>0.1335071383410304</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2855501952712417</v>
+        <v>0.2842594952531616</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -7118,19 +7118,19 @@
         <v>16275</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10990</v>
+        <v>10918</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24591</v>
+        <v>23904</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.174853724097428</v>
+        <v>0.1748537240974279</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1180755727698094</v>
+        <v>0.1173003965673415</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2642085450152291</v>
+        <v>0.2568209540835966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -7139,19 +7139,19 @@
         <v>39624</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29594</v>
+        <v>28027</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52205</v>
+        <v>50457</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1899447757121066</v>
+        <v>0.1899447757121065</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1418657823028976</v>
+        <v>0.1343538140474584</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.250252691056607</v>
+        <v>0.241873195678291</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>77780</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61103</v>
+        <v>61778</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101758</v>
+        <v>100924</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1641415346642063</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1289486092598574</v>
+        <v>0.1303733121545045</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2147431801107555</v>
+        <v>0.2129827953681709</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>105</v>
@@ -7264,19 +7264,19 @@
         <v>87199</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73429</v>
+        <v>71873</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>104243</v>
+        <v>103544</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2265851133788639</v>
+        <v>0.2265851133788638</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1908028320596464</v>
+        <v>0.1867610451938424</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2708731201882874</v>
+        <v>0.2690561508986373</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>165</v>
@@ -7285,19 +7285,19 @@
         <v>164979</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>141215</v>
+        <v>141776</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>192100</v>
+        <v>191105</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1921267499182605</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1644515228595634</v>
+        <v>0.1651053388665961</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.223710070289195</v>
+        <v>0.222551791367147</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>62290</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>47813</v>
+        <v>45501</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81466</v>
+        <v>81224</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1314538240896684</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1009017105754045</v>
+        <v>0.0960216248055601</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1719216198801986</v>
+        <v>0.1714105474761637</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -7335,19 +7335,19 @@
         <v>51071</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39182</v>
+        <v>40963</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63990</v>
+        <v>64494</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1327073906737373</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1018132245941079</v>
+        <v>0.1064406127725636</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1662755289703565</v>
+        <v>0.167585664211063</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>109</v>
@@ -7356,19 +7356,19 @@
         <v>113362</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>93754</v>
+        <v>94106</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>135841</v>
+        <v>137273</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1320156325480011</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1091808431843485</v>
+        <v>0.109591176868137</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.158193676261848</v>
+        <v>0.1598613412089516</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>133789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>111900</v>
+        <v>113783</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>156680</v>
+        <v>157850</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.28233992407334</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2361456521450453</v>
+        <v>0.240119635130645</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3306483042769138</v>
+        <v>0.3331170943800891</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>140</v>
@@ -7406,19 +7406,19 @@
         <v>100247</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>85680</v>
+        <v>86243</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>114964</v>
+        <v>115369</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.260488836717339</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2226370775015964</v>
+        <v>0.2240992408734536</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2987299222137261</v>
+        <v>0.2997826796160937</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>252</v>
@@ -7427,19 +7427,19 @@
         <v>234036</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>209227</v>
+        <v>208169</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>261931</v>
+        <v>266417</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2725469654412415</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2436546699228113</v>
+        <v>0.2424225956239097</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3050312715276092</v>
+        <v>0.3102559024785856</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>83369</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>65852</v>
+        <v>62960</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>100994</v>
+        <v>100291</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1759367113434804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1389694525210245</v>
+        <v>0.1328667852212798</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2131303325125473</v>
+        <v>0.2116474678814908</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>91</v>
@@ -7477,19 +7477,19 @@
         <v>68628</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>57676</v>
+        <v>56096</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>85541</v>
+        <v>82715</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1783271496464926</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1498693707816343</v>
+        <v>0.1457645269770713</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2222751438645612</v>
+        <v>0.2149330045153414</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>167</v>
@@ -7498,19 +7498,19 @@
         <v>151997</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>130235</v>
+        <v>129577</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>173627</v>
+        <v>176555</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1770080293530875</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1516655736068612</v>
+        <v>0.15089902350728</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2021976665243776</v>
+        <v>0.2056065352788378</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>116630</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>92201</v>
+        <v>94157</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>138647</v>
+        <v>140149</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.246128005829305</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1945744529856771</v>
+        <v>0.1987024142462878</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2925920327003452</v>
+        <v>0.2957611273056411</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>96</v>
@@ -7548,19 +7548,19 @@
         <v>77696</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65009</v>
+        <v>63632</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94421</v>
+        <v>94599</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2018915095835673</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1689245942782702</v>
+        <v>0.1653466220684101</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2453508410620739</v>
+        <v>0.2458115121113076</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>188</v>
@@ -7569,19 +7569,19 @@
         <v>194326</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>169295</v>
+        <v>169268</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>223041</v>
+        <v>222810</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2263026227394095</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1971521142664813</v>
+        <v>0.1971206787217566</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2597421031718656</v>
+        <v>0.2594738742371416</v>
       </c>
     </row>
     <row r="33">
